--- a/Упражнения/50.Separator.xlsx
+++ b/Упражнения/50.Separator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\Упражнения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E2A491-D74E-49DF-B611-6B605BF0227F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4860FB37-CB9B-4EAD-8B85-D852F1DA9D6C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2013,10 +2013,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2025,11 +2069,16 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2069,55 +2118,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -65159,15 +65159,15 @@
       <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="101"/>
-      <c r="L1" s="105">
+      <c r="K1" s="75"/>
+      <c r="L1" s="80">
         <f>AV7-1</f>
         <v>-1</v>
       </c>
-      <c r="M1" s="106"/>
+      <c r="M1" s="81"/>
       <c r="Q1" t="b">
         <v>0</v>
       </c>
@@ -65179,15 +65179,15 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="102" t="s">
+      <c r="J2" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="103"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="78">
         <f>AY11-1</f>
         <v>-1</v>
       </c>
-      <c r="M2" s="104"/>
+      <c r="M2" s="79"/>
       <c r="T2" s="19" t="s">
         <v>20</v>
       </c>
@@ -65201,31 +65201,31 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="96" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
+      <c r="D4" s="97"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="80">
+      <c r="B5" s="98">
         <v>1</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
     </row>
     <row r="6" spans="1:20" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
     </row>
     <row r="7" spans="1:20" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
@@ -65234,14 +65234,14 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="D8" s="86" t="s">
+      <c r="B8" s="105"/>
+      <c r="D8" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="87"/>
+      <c r="E8" s="105"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -65352,10 +65352,10 @@
     </row>
     <row r="17" spans="1:5" ht="12.9" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:5" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="89"/>
+      <c r="B18" s="107"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -65383,10 +65383,10 @@
     </row>
     <row r="22" spans="1:5" ht="12.9" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:5" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="89"/>
+      <c r="B23" s="107"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -65508,99 +65508,99 @@
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="74"/>
-      <c r="C42" s="92" t="s">
+      <c r="B42" s="95"/>
+      <c r="C42" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="95" t="s">
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="96"/>
-      <c r="L42" s="107" t="s">
+      <c r="J42" s="88"/>
+      <c r="L42" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="107"/>
-      <c r="N42" s="107" t="s">
+      <c r="M42" s="73"/>
+      <c r="N42" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="O42" s="107"/>
-      <c r="P42" s="107" t="s">
+      <c r="O42" s="73"/>
+      <c r="P42" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="Q42" s="107"/>
-      <c r="R42" s="107" t="s">
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="S42" s="107"/>
-      <c r="T42" s="107" t="s">
+      <c r="S42" s="73"/>
+      <c r="T42" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="U42" s="107"/>
-      <c r="V42" s="107" t="s">
+      <c r="U42" s="73"/>
+      <c r="V42" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="W42" s="107"/>
-      <c r="X42" s="107" t="s">
+      <c r="W42" s="73"/>
+      <c r="X42" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="Y42" s="107"/>
-      <c r="Z42" s="107" t="s">
+      <c r="Y42" s="73"/>
+      <c r="Z42" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="AA42" s="107"/>
-      <c r="AB42" s="107" t="s">
+      <c r="AA42" s="73"/>
+      <c r="AB42" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="AC42" s="107"/>
-      <c r="AD42" s="107" t="s">
+      <c r="AC42" s="73"/>
+      <c r="AD42" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="AE42" s="107"/>
-      <c r="AF42" s="107" t="s">
+      <c r="AE42" s="73"/>
+      <c r="AF42" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="AG42" s="107"/>
-      <c r="AH42" s="107" t="s">
+      <c r="AG42" s="73"/>
+      <c r="AH42" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="AI42" s="107"/>
-      <c r="AJ42" s="107" t="s">
+      <c r="AI42" s="73"/>
+      <c r="AJ42" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="AK42" s="107"/>
-      <c r="AL42" s="107"/>
-      <c r="AM42" s="107"/>
-      <c r="AN42" s="107"/>
-      <c r="AO42" s="107"/>
-      <c r="AP42" s="107"/>
-      <c r="AQ42" s="107"/>
-      <c r="AR42" s="107"/>
-      <c r="AS42" s="107"/>
+      <c r="AK42" s="73"/>
+      <c r="AL42" s="73"/>
+      <c r="AM42" s="73"/>
+      <c r="AN42" s="73"/>
+      <c r="AO42" s="73"/>
+      <c r="AP42" s="73"/>
+      <c r="AQ42" s="73"/>
+      <c r="AR42" s="73"/>
+      <c r="AS42" s="73"/>
       <c r="AT42" s="21"/>
     </row>
     <row r="43" spans="1:46" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="75"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="75" t="s">
+      <c r="A43" s="91"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="76"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="75" t="s">
+      <c r="D43" s="92"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="76"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="98"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="90"/>
       <c r="L43" s="21" t="s">
         <v>15</v>
       </c>
@@ -65696,17 +65696,17 @@
       <c r="B44" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="90" t="s">
+      <c r="C44" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="91"/>
+      <c r="D44" s="83"/>
       <c r="E44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="90" t="s">
+      <c r="F44" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="91"/>
+      <c r="G44" s="83"/>
       <c r="H44" s="8" t="s">
         <v>65</v>
       </c>
@@ -68179,13 +68179,20 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AL42:AM42"/>
-    <mergeCell ref="AN42:AO42"/>
-    <mergeCell ref="AP42:AQ42"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
@@ -68200,20 +68207,13 @@
     <mergeCell ref="X42:Y42"/>
     <mergeCell ref="Z42:AA42"/>
     <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:J43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AL42:AM42"/>
+    <mergeCell ref="AN42:AO42"/>
+    <mergeCell ref="AP42:AQ42"/>
   </mergeCells>
   <conditionalFormatting sqref="B9">
     <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="lessThanOrEqual">
